--- a/output/accessibility tables.xlsx
+++ b/output/accessibility tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\MEGAsync\Steve\RMIT JIBE\20mnMelbourne\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D1C641-0AD7-4F28-A471-D01E78C6A92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20D97C-3A4C-4C69-BECB-FF56A4D46CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17385" yWindow="-15855" windowWidth="24765" windowHeight="14310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="-15465" windowWidth="24720" windowHeight="13410" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LGA accessibility scores walk" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,27 @@
     <sheet name="LGA accessibility scores summ" sheetId="3" r:id="rId3"/>
     <sheet name="SA2 accessibility scores walk" sheetId="4" r:id="rId4"/>
     <sheet name="SA2 accessibility scores cycle" sheetId="5" r:id="rId5"/>
+    <sheet name="people &amp; dwelling access scores" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="434">
   <si>
     <t>NAME</t>
   </si>
@@ -1300,6 +1314,33 @@
   <si>
     <t>214021385</t>
   </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>walk_dwel_base</t>
+  </si>
+  <si>
+    <t>walk_dwel_int</t>
+  </si>
+  <si>
+    <t>walk_people_base</t>
+  </si>
+  <si>
+    <t>walk_people_int</t>
+  </si>
+  <si>
+    <t>cycle_dwel_base</t>
+  </si>
+  <si>
+    <t>cycle_dwel_int</t>
+  </si>
+  <si>
+    <t>cycle_people_base</t>
+  </si>
+  <si>
+    <t>cycle_people_int</t>
+  </si>
 </sst>
 </file>
 
@@ -1308,13 +1349,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1345,11 +1391,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1653,26 +1700,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="5" width="10.90625" style="1"/>
-    <col min="6" max="6" width="10.90625" style="2"/>
-    <col min="7" max="7" width="10.90625" style="3"/>
-    <col min="8" max="9" width="10.90625" style="1"/>
-    <col min="10" max="10" width="10.90625" style="2"/>
-    <col min="11" max="11" width="10.90625" style="3"/>
-    <col min="12" max="13" width="10.90625" style="1"/>
-    <col min="14" max="14" width="10.90625" style="2"/>
-    <col min="15" max="15" width="10.90625" style="3"/>
-    <col min="16" max="17" width="10.90625" style="1"/>
-    <col min="18" max="18" width="10.90625" style="2"/>
-    <col min="19" max="19" width="10.90625" style="3"/>
-    <col min="20" max="21" width="10.90625" style="1"/>
-    <col min="22" max="22" width="10.90625" style="2"/>
-    <col min="23" max="23" width="10.90625" style="3"/>
-    <col min="24" max="25" width="10.90625" style="1"/>
-    <col min="26" max="26" width="10.90625" style="2"/>
-    <col min="27" max="27" width="10.90625" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -4333,8 +4360,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4343,31 +4370,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="5" width="10.90625" style="1"/>
-    <col min="6" max="6" width="10.90625" style="2"/>
-    <col min="7" max="7" width="10.90625" style="3"/>
-    <col min="8" max="9" width="10.90625" style="1"/>
-    <col min="10" max="10" width="10.90625" style="2"/>
-    <col min="11" max="11" width="10.90625" style="3"/>
-    <col min="12" max="13" width="10.90625" style="1"/>
-    <col min="14" max="14" width="10.90625" style="2"/>
-    <col min="15" max="15" width="10.90625" style="3"/>
-    <col min="16" max="17" width="10.90625" style="1"/>
-    <col min="18" max="18" width="10.90625" style="2"/>
-    <col min="19" max="19" width="10.90625" style="3"/>
-    <col min="20" max="21" width="10.90625" style="1"/>
-    <col min="22" max="22" width="10.90625" style="2"/>
-    <col min="23" max="23" width="10.90625" style="3"/>
-    <col min="24" max="25" width="10.90625" style="1"/>
-    <col min="26" max="26" width="10.90625" style="2"/>
-    <col min="27" max="27" width="10.90625" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -7028,8 +7035,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7043,14 +7050,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="4" width="10.90625" style="1"/>
-    <col min="5" max="5" width="10.90625" style="2"/>
-    <col min="6" max="6" width="10.90625" style="3"/>
-    <col min="7" max="8" width="10.90625" style="1"/>
-    <col min="9" max="9" width="10.90625" style="2"/>
-    <col min="10" max="10" width="10.90625" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -8079,8 +8078,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -27271,8 +27270,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -46463,8 +46462,491 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="9" width="10.90625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4.0319528506803</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.7741136959614501</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.2230671600012899</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.9731616948168802</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.80555264028970996</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.79067411713075397</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.83924613253894698</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.82754750807152599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8.1908431929516006</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.0520809788155301</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8.82069123082867</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.6462018850118598</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.2952319495860101</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.2307053139020101</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.2866926126217499</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.2266977144353699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8.3876135635347797</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.26296347690195</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9.2165188535065408</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.0114166413995598</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.98212372471676301</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.83255460293532002</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.929911809400915</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.80706724602018398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8.9163134221016005</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.5463565936763404</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.6166093053976809</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6.1562039874765304</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.1918694602512001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.92670302352259304</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.2109590973705899</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.967966107241374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>9.7965604024877706</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5.1266467454856004</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10.639846708916901</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.7799387123700301</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.0880185076132201</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.75676703971815396</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.1660942993402099</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.83897954924087403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9.9483235253638593</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.3176406255884698</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10.503008871478301</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.7832787269863504</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.30789459125748</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.78066316770827504</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.4631199601496201</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.88548283002111305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9.2780000058252892</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.4529463675756702</v>
+      </c>
+      <c r="D8" s="4">
+        <v>9.5674931873834392</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.7430007891078301</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.5569246975365301</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.86847988081772798</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.77704542804758</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.0139958438218699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.4212445793023907</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.3817269099420701</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8.4824534487967398</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.5506427195042201</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.9563862907846401</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.80273653897029995</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.0850567124563102</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.911795944821574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7.4338507589840201</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.0477325475825698</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.1551158482136001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.1112582433063198</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.63925354292346</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.77606366061855903</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.0102713255018201</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.92240477450095004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6.9616499198240698</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.3636557383682502</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6.4634570136142697</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.3749507806174601</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.9261272754661198</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.83288113806375397</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4.4783072614930903</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.978632951207422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6.7925903312180704</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.39274907588426</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.8888916949752899</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.4181674640547501</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6.1844059730427796</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.89495088680403501</v>
+      </c>
+      <c r="H12" s="4">
+        <v>6.9862383562634296</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.0165954799903401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.2376739541745101</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5.6386843101365498</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4.3107797114316799</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5.6514086308836404</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9.6057422711559308</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.64014929453534</v>
+      </c>
+      <c r="H13" s="4">
+        <v>10.569184479630101</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.8230786303062301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.86010080313297</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8.5444691395260097</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.06301657326201</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8.2850655146727608</v>
+      </c>
+      <c r="F14" s="4">
+        <v>15.224895292469</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6.9657223196558098</v>
+      </c>
+      <c r="H14" s="4">
+        <v>15.8769360157211</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7.7696150703847602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.2821168151946001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10.8387158390622</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.6716700020150399</v>
+      </c>
+      <c r="E15" s="4">
+        <v>9.7385830421202702</v>
+      </c>
+      <c r="F15" s="4">
+        <v>24.975707321192999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.2384385408243501</v>
+      </c>
+      <c r="H15" s="4">
+        <v>24.177883548450101</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5.5192357883205796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.46116587522415697</v>
+      </c>
+      <c r="C16" s="4">
+        <v>29.259517955493099</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.37738039017858099</v>
+      </c>
+      <c r="E16" s="4">
+        <v>26.7767211676715</v>
+      </c>
+      <c r="F16" s="4">
+        <v>27.2598664617142</v>
+      </c>
+      <c r="G16" s="4">
+        <v>76.662510474792995</v>
+      </c>
+      <c r="H16" s="4">
+        <v>24.143052961014401</v>
+      </c>
+      <c r="I16" s="4">
+        <v>74.490904561615807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/output/accessibility tables.xlsx
+++ b/output/accessibility tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\MEGAsync\Steve\RMIT JIBE\20mnMelbourne\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20D97C-3A4C-4C69-BECB-FF56A4D46CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB1F445-024C-484B-8BBC-E94AEABB0369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="-15465" windowWidth="24720" windowHeight="13410" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21945" yWindow="-14550" windowWidth="20805" windowHeight="12060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LGA accessibility scores walk" sheetId="1" r:id="rId1"/>
@@ -314,30 +314,6 @@
   </si>
   <si>
     <t>Nillumbik</t>
-  </si>
-  <si>
-    <t>score_single_hard_base_base</t>
-  </si>
-  <si>
-    <t>score_single_hard_int_base</t>
-  </si>
-  <si>
-    <t>score_single_hard_diff_base</t>
-  </si>
-  <si>
-    <t>score_single_hard_rank_base</t>
-  </si>
-  <si>
-    <t>score_single_hard_base_int</t>
-  </si>
-  <si>
-    <t>score_single_hard_int_int</t>
-  </si>
-  <si>
-    <t>score_single_hard_diff_int</t>
-  </si>
-  <si>
-    <t>score_single_hard_rank_int</t>
   </si>
   <si>
     <t>SA2_MAIN16</t>
@@ -1341,6 +1317,30 @@
   <si>
     <t>cycle_people_int</t>
   </si>
+  <si>
+    <t>score_single_hard_base_walk</t>
+  </si>
+  <si>
+    <t>score_single_hard_int_walk</t>
+  </si>
+  <si>
+    <t>score_single_hard_diff_walk</t>
+  </si>
+  <si>
+    <t>score_single_hard_rank_walk</t>
+  </si>
+  <si>
+    <t>score_single_hard_base_cycle</t>
+  </si>
+  <si>
+    <t>score_single_hard_int_cycle</t>
+  </si>
+  <si>
+    <t>score_single_hard_diff_cycle</t>
+  </si>
+  <si>
+    <t>score_single_hard_rank_cycle</t>
+  </si>
 </sst>
 </file>
 
@@ -1361,6 +1361,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1695,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AA1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4361,7 +4362,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7036,7 +7037,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7045,8 +7046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7059,28 +7060,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>428</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>429</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>430</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>431</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>99</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8079,7 +8080,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -8094,7 +8095,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -8153,7 +8154,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>1.1855225855574201</v>
@@ -8212,7 +8213,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>0.122746980067079</v>
@@ -8271,7 +8272,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>0.27501100713911297</v>
@@ -8330,7 +8331,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>1.8430585482259101</v>
@@ -8389,7 +8390,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>2.8133801088577699</v>
@@ -8448,7 +8449,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -8507,7 +8508,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -8566,7 +8567,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>3.14674244619837</v>
@@ -8625,7 +8626,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>2.16959478212988</v>
@@ -8684,7 +8685,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>9.6859269402918793E-2</v>
@@ -8743,7 +8744,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>1.0557753909930301</v>
@@ -8802,7 +8803,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>0.56858224675255997</v>
@@ -8861,7 +8862,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>2.65977049309102</v>
@@ -8920,7 +8921,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>0.54704301075268802</v>
@@ -8979,7 +8980,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>0.14259259259259299</v>
@@ -9038,7 +9039,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B17">
         <v>4.97306579323942</v>
@@ -9097,7 +9098,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B18">
         <v>1.7967607300089199</v>
@@ -9156,7 +9157,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <v>12.3125324134637</v>
@@ -9215,7 +9216,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <v>0.62073000278611701</v>
@@ -9274,7 +9275,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>8.6000510838486406</v>
@@ -9333,7 +9334,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>8.8799441195344908</v>
@@ -9392,7 +9393,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B23">
         <v>8.7738941471041105</v>
@@ -9451,7 +9452,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>7.7687037329264896</v>
@@ -9510,7 +9511,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B25">
         <v>7.2260934521110398</v>
@@ -9569,7 +9570,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B26">
         <v>9.1902322704191004</v>
@@ -9628,7 +9629,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B27">
         <v>7.9556167312250796</v>
@@ -9687,7 +9688,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B28">
         <v>8.1779873038477202</v>
@@ -9746,7 +9747,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B29">
         <v>7.9315404457473804</v>
@@ -9805,7 +9806,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B30">
         <v>7.5789344545864603</v>
@@ -9864,7 +9865,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B31">
         <v>9.0668855929037608</v>
@@ -9923,7 +9924,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>8.0514219778882197</v>
@@ -9982,7 +9983,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B33">
         <v>10.745313269390699</v>
@@ -10041,7 +10042,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B34">
         <v>8.7779772206412598</v>
@@ -10100,7 +10101,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B35">
         <v>8.7679171997764591</v>
@@ -10159,7 +10160,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B36">
         <v>5.8675496688741697</v>
@@ -10218,7 +10219,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B37">
         <v>7.9746277673476902</v>
@@ -10277,7 +10278,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B38">
         <v>11.306307841413</v>
@@ -10336,7 +10337,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B39">
         <v>11.4273336680704</v>
@@ -10395,7 +10396,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B40">
         <v>6.0383055520083904</v>
@@ -10454,7 +10455,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B41">
         <v>9.0517071639512494</v>
@@ -10513,7 +10514,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B42">
         <v>10.166583552718601</v>
@@ -10572,7 +10573,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B43">
         <v>11.2096818869008</v>
@@ -10631,7 +10632,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B44">
         <v>9.57060170378133</v>
@@ -10690,7 +10691,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B45">
         <v>10.2146886437069</v>
@@ -10749,7 +10750,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B46">
         <v>11.2103141431294</v>
@@ -10808,7 +10809,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B47">
         <v>9.7360907358803193</v>
@@ -10867,7 +10868,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B48">
         <v>9.5817017894179308</v>
@@ -10926,7 +10927,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B49">
         <v>8.8822435038311003</v>
@@ -10985,7 +10986,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B50">
         <v>10.464402550924101</v>
@@ -11044,7 +11045,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B51">
         <v>10.8650881225544</v>
@@ -11103,7 +11104,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B52">
         <v>6.8267047177990001</v>
@@ -11162,7 +11163,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B53">
         <v>9.4659236615443607</v>
@@ -11221,7 +11222,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B54">
         <v>10.0489842870671</v>
@@ -11280,7 +11281,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B55">
         <v>10.377119169243599</v>
@@ -11339,7 +11340,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B56">
         <v>10.880042268051399</v>
@@ -11398,7 +11399,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B57">
         <v>9.2404660594665593</v>
@@ -11457,7 +11458,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B58">
         <v>9.2444114082428595</v>
@@ -11516,7 +11517,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B59">
         <v>7.0864619383840397</v>
@@ -11575,7 +11576,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B60">
         <v>7.2796154566036302</v>
@@ -11634,7 +11635,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B61">
         <v>7.4506131272882703</v>
@@ -11693,7 +11694,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B62">
         <v>6.2442024343726201</v>
@@ -11752,7 +11753,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B63">
         <v>6.3061434657622497</v>
@@ -11811,7 +11812,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B64">
         <v>5.2461561319324401</v>
@@ -11870,7 +11871,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B65">
         <v>8.5807595134127492</v>
@@ -11929,7 +11930,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B66">
         <v>8.1407076040869608</v>
@@ -11988,7 +11989,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B67">
         <v>6.5172867263145999</v>
@@ -12047,7 +12048,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B68">
         <v>6.4643937292688198</v>
@@ -12106,7 +12107,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B69">
         <v>7.2749733610336396</v>
@@ -12165,7 +12166,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B70">
         <v>5.8116368043170601</v>
@@ -12224,7 +12225,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B71">
         <v>4.9786782919381602</v>
@@ -12283,7 +12284,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B72">
         <v>3.9948062154960802</v>
@@ -12342,7 +12343,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B73">
         <v>4.6043930062425504</v>
@@ -12401,7 +12402,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B74">
         <v>4.4371787191187204</v>
@@ -12460,7 +12461,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B75">
         <v>7.0836804583780104</v>
@@ -12519,7 +12520,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B76">
         <v>6.0341034315944997</v>
@@ -12578,7 +12579,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B77">
         <v>5.3795037196062099</v>
@@ -12637,7 +12638,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B78">
         <v>6.8674666844327197</v>
@@ -12696,7 +12697,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B79">
         <v>5.0763025100025896</v>
@@ -12755,7 +12756,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B80">
         <v>6.3486674065765598</v>
@@ -12814,7 +12815,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B81">
         <v>5.3824851272155803</v>
@@ -12873,7 +12874,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B82">
         <v>5.7493127649330296</v>
@@ -12932,7 +12933,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B83">
         <v>7.4132715447951396</v>
@@ -12991,7 +12992,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B84">
         <v>8.0035342339250306</v>
@@ -13050,7 +13051,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B85">
         <v>5.9175729366774901</v>
@@ -13109,7 +13110,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B86">
         <v>7.2332538172619003</v>
@@ -13168,7 +13169,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B87">
         <v>6.3559714619604302</v>
@@ -13227,7 +13228,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B88">
         <v>7.5142286203225401</v>
@@ -13286,7 +13287,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B89">
         <v>7.3327188999693602</v>
@@ -13345,7 +13346,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B90">
         <v>7.6278985464451203</v>
@@ -13404,7 +13405,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B91">
         <v>6.3030298281704296</v>
@@ -13463,7 +13464,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B92">
         <v>6.5975790405302197</v>
@@ -13522,7 +13523,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B93">
         <v>9.51285163164831</v>
@@ -13581,7 +13582,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B94">
         <v>7.8117017736935503</v>
@@ -13640,7 +13641,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B95">
         <v>7.1789144611688496</v>
@@ -13699,7 +13700,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B96">
         <v>7.9544614106575304</v>
@@ -13758,7 +13759,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B97">
         <v>5.7357508728637896</v>
@@ -13817,7 +13818,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B98">
         <v>6.3932536890933198</v>
@@ -13876,7 +13877,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B99">
         <v>4.2445242757404698</v>
@@ -13935,7 +13936,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B100">
         <v>2.50561797752809</v>
@@ -13994,7 +13995,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B101">
         <v>5.3469391381918099</v>
@@ -14053,7 +14054,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B102">
         <v>5.1527443124307899</v>
@@ -14112,7 +14113,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B103">
         <v>5.6593680506756403</v>
@@ -14171,7 +14172,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B104">
         <v>6.85649088126317</v>
@@ -14230,7 +14231,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B105">
         <v>5.91547478144793</v>
@@ -14289,7 +14290,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B106">
         <v>6.6373503746068501</v>
@@ -14348,7 +14349,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B107">
         <v>5.3044896014768401</v>
@@ -14407,7 +14408,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B108">
         <v>7.1757665824586097</v>
@@ -14466,7 +14467,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B109">
         <v>6.8042349109781801</v>
@@ -14525,7 +14526,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B110">
         <v>6.9198487173798302</v>
@@ -14584,7 +14585,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B111">
         <v>5.6177504800764799</v>
@@ -14643,7 +14644,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B112">
         <v>5.41779171104388</v>
@@ -14702,7 +14703,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B113">
         <v>6.6240192932172803</v>
@@ -14761,7 +14762,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B114">
         <v>5.8141797843381999</v>
@@ -14820,7 +14821,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B115">
         <v>6.1013559037603002</v>
@@ -14879,7 +14880,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B116">
         <v>6.3332310269655698</v>
@@ -14938,7 +14939,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B117">
         <v>6.2479513921371597</v>
@@ -14997,7 +14998,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B118">
         <v>4.8007116936410297</v>
@@ -15056,7 +15057,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B119">
         <v>6.2719760221081904</v>
@@ -15115,7 +15116,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B120">
         <v>5.4998182910405804</v>
@@ -15174,7 +15175,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B121">
         <v>6.1684125991072198</v>
@@ -15233,7 +15234,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B122">
         <v>6.1439244720460398</v>
@@ -15292,7 +15293,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B123">
         <v>8.6253816238387309</v>
@@ -15351,7 +15352,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B124">
         <v>8.2139567211268396</v>
@@ -15410,7 +15411,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B125">
         <v>3.6237090086282602</v>
@@ -15469,7 +15470,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B126">
         <v>2.93412953386993</v>
@@ -15528,7 +15529,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B127">
         <v>1.37727730938318</v>
@@ -15587,7 +15588,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B128">
         <v>1.28580673666016</v>
@@ -15646,7 +15647,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B129">
         <v>3.3119294169959699</v>
@@ -15705,7 +15706,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B130">
         <v>3.0280581247840002</v>
@@ -15764,7 +15765,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B131">
         <v>3.1781746499253498</v>
@@ -15823,7 +15824,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B132">
         <v>3.5660588689378199</v>
@@ -15882,7 +15883,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B133">
         <v>5.56499936540206</v>
@@ -15941,7 +15942,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B134">
         <v>5.57717299805355</v>
@@ -16000,7 +16001,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B135">
         <v>4.5463694175568898</v>
@@ -16059,7 +16060,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B136">
         <v>5.1185427858514299</v>
@@ -16118,7 +16119,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B137">
         <v>5.9513127925994702</v>
@@ -16177,7 +16178,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B138">
         <v>2.15939100799419</v>
@@ -16236,7 +16237,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B139">
         <v>2.8723760422720601</v>
@@ -16295,7 +16296,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B140">
         <v>4.4033444770633503</v>
@@ -16354,7 +16355,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B141">
         <v>4.8240668377813698</v>
@@ -16413,7 +16414,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B142">
         <v>6.0552907581017097</v>
@@ -16472,7 +16473,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B143">
         <v>5.3914512109133597</v>
@@ -16531,7 +16532,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B144">
         <v>5.40859312020436</v>
@@ -16590,7 +16591,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B145">
         <v>3.25352963868065</v>
@@ -16649,7 +16650,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B146">
         <v>4.3207251064704604</v>
@@ -16708,7 +16709,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B147">
         <v>2.9204090926725601</v>
@@ -16767,7 +16768,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B148">
         <v>6.7730087725597503</v>
@@ -16826,7 +16827,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B149">
         <v>4.4637514836092302</v>
@@ -16885,7 +16886,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B150">
         <v>5.7765059022619196</v>
@@ -16944,7 +16945,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B151">
         <v>4.5015222292770796</v>
@@ -17003,7 +17004,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B152">
         <v>6.0736604655451698</v>
@@ -17062,7 +17063,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B153">
         <v>2.08590217324257</v>
@@ -17121,7 +17122,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B154">
         <v>1.98629565638308</v>
@@ -17180,7 +17181,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B155">
         <v>1.9653582052337399</v>
@@ -17239,7 +17240,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B156">
         <v>2.4137385158059899</v>
@@ -17298,7 +17299,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B157">
         <v>6.4682554054852801</v>
@@ -17357,7 +17358,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B158">
         <v>6.6878010404911796</v>
@@ -17416,7 +17417,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B159">
         <v>6.3252130928471004</v>
@@ -17475,7 +17476,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B160">
         <v>6.22708677531761</v>
@@ -17534,7 +17535,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B161">
         <v>4.2106676483091796</v>
@@ -17593,7 +17594,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B162">
         <v>5.67719307839051</v>
@@ -17652,7 +17653,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B163">
         <v>2.7370715097225</v>
@@ -17711,7 +17712,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B164">
         <v>4.1439341931544904</v>
@@ -17770,7 +17771,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B165">
         <v>7.44560476441921</v>
@@ -17829,7 +17830,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B166">
         <v>6.0823533207306699</v>
@@ -17888,7 +17889,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B167">
         <v>4.2453581055834499</v>
@@ -17947,7 +17948,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B168">
         <v>3.1326408842106899</v>
@@ -18006,7 +18007,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B169">
         <v>5.1421754134731001</v>
@@ -18065,7 +18066,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B170">
         <v>1.0941473630949801</v>
@@ -18124,7 +18125,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B171">
         <v>4.7893066959276798</v>
@@ -18183,7 +18184,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B172">
         <v>6.4209300143817201</v>
@@ -18242,7 +18243,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B173">
         <v>5.12266373234357</v>
@@ -18301,7 +18302,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B174">
         <v>4.1304577081433598</v>
@@ -18360,7 +18361,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B175">
         <v>3.72939156945016</v>
@@ -18419,7 +18420,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B176">
         <v>4.1488169793448098</v>
@@ -18478,7 +18479,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B177">
         <v>1.2132133973320001</v>
@@ -18537,7 +18538,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B178">
         <v>5.3546011231137296</v>
@@ -18596,7 +18597,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B179">
         <v>5.09316158042793</v>
@@ -18655,7 +18656,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B180">
         <v>1.84553804608352</v>
@@ -18714,7 +18715,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B181">
         <v>4.0721605619056502</v>
@@ -18773,7 +18774,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B182">
         <v>3.3281742184060699</v>
@@ -18832,7 +18833,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B183">
         <v>3.5789316672577902</v>
@@ -18891,7 +18892,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B184">
         <v>5.20810617055447</v>
@@ -18950,7 +18951,7 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B185">
         <v>5.2933412115908096</v>
@@ -19009,7 +19010,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B186">
         <v>4.7897852528736902</v>
@@ -19068,7 +19069,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B187">
         <v>5.3252720179375403</v>
@@ -19127,7 +19128,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B188">
         <v>4.31167792407863</v>
@@ -19186,7 +19187,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B189">
         <v>3.2863011150418999</v>
@@ -19245,7 +19246,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B190">
         <v>3.6223300857736702</v>
@@ -19304,7 +19305,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B191">
         <v>2.86376221981955</v>
@@ -19363,7 +19364,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B192">
         <v>3.2692849634513901</v>
@@ -19422,7 +19423,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B193">
         <v>3.2838303745150501</v>
@@ -19481,7 +19482,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B194">
         <v>5.4007732185521897</v>
@@ -19540,7 +19541,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B195">
         <v>5.1070491736531496</v>
@@ -19599,7 +19600,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B196">
         <v>4.6934830265956098</v>
@@ -19658,7 +19659,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B197">
         <v>5.3226147560459198</v>
@@ -19717,7 +19718,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B198">
         <v>4.0493650170806497</v>
@@ -19776,7 +19777,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B199">
         <v>4.4975035842601603</v>
@@ -19835,7 +19836,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B200">
         <v>5.8152707639814798</v>
@@ -19894,7 +19895,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B201">
         <v>6.0045320778811204</v>
@@ -19953,7 +19954,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B202">
         <v>5.1625344291446202</v>
@@ -20012,7 +20013,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B203">
         <v>4.5666870149357903</v>
@@ -20071,7 +20072,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B204">
         <v>4.71722032449685</v>
@@ -20130,7 +20131,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B205">
         <v>3.94522674978503</v>
@@ -20189,7 +20190,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B206">
         <v>3.4056036859473</v>
@@ -20248,7 +20249,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B207">
         <v>2.6330774233176499</v>
@@ -20307,7 +20308,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B208">
         <v>4.3534941702896601</v>
@@ -20366,7 +20367,7 @@
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B209">
         <v>3.18257157501042</v>
@@ -20425,7 +20426,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B210">
         <v>2.9499439719187399</v>
@@ -20484,7 +20485,7 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B211">
         <v>3.8349209850156201</v>
@@ -20543,7 +20544,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B212">
         <v>3.6002848283521001</v>
@@ -20602,7 +20603,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B213">
         <v>2.5428279909262801</v>
@@ -20661,7 +20662,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B214">
         <v>3.1034335971839502</v>
@@ -20720,7 +20721,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B215">
         <v>3.5498497821780899</v>
@@ -20779,7 +20780,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B216">
         <v>3.0227077247026699</v>
@@ -20838,7 +20839,7 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B217">
         <v>2.2674252041320901</v>
@@ -20897,7 +20898,7 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B218">
         <v>3.2420207371860998</v>
@@ -20956,7 +20957,7 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B219">
         <v>2.6165937864358102</v>
@@ -21015,7 +21016,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B220">
         <v>2.3903521133127299</v>
@@ -21074,7 +21075,7 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B221">
         <v>3.2038660825261198</v>
@@ -21133,7 +21134,7 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B222">
         <v>2.6492043960303899</v>
@@ -21192,7 +21193,7 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B223">
         <v>4.1673432180314496</v>
@@ -21251,7 +21252,7 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B224">
         <v>3.8501119126883401</v>
@@ -21310,7 +21311,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B225">
         <v>3.4365894204336498</v>
@@ -21369,7 +21370,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B226">
         <v>6.7116080033932599</v>
@@ -21428,7 +21429,7 @@
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B227">
         <v>3.7011599418026702</v>
@@ -21487,7 +21488,7 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B228">
         <v>1.45973196386242</v>
@@ -21546,7 +21547,7 @@
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B229">
         <v>4.4811162444768096</v>
@@ -21605,7 +21606,7 @@
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B230">
         <v>5.2934836484431296</v>
@@ -21664,7 +21665,7 @@
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B231">
         <v>3.7539413263013199</v>
@@ -21723,7 +21724,7 @@
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B232">
         <v>4.5383513212930904</v>
@@ -21782,7 +21783,7 @@
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B233">
         <v>4.59985272780765</v>
@@ -21841,7 +21842,7 @@
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B234">
         <v>3.3929397107552801</v>
@@ -21900,7 +21901,7 @@
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B235">
         <v>4.2396977384651997</v>
@@ -21959,7 +21960,7 @@
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B236">
         <v>1.4123459801523099</v>
@@ -22018,7 +22019,7 @@
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B237">
         <v>4.1428031203489804</v>
@@ -22077,7 +22078,7 @@
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B238">
         <v>4.3142273108295104</v>
@@ -22136,7 +22137,7 @@
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B239">
         <v>4.3589316521300496</v>
@@ -22195,7 +22196,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B240">
         <v>3.7759081122385099</v>
@@ -22254,7 +22255,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B241">
         <v>3.8368092037062</v>
@@ -22313,7 +22314,7 @@
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B242">
         <v>4.6814680083433098</v>
@@ -22372,7 +22373,7 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B243">
         <v>5.0981641791169299</v>
@@ -22431,7 +22432,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B244">
         <v>5.3593805616554002</v>
@@ -22490,7 +22491,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B245">
         <v>6.6261309150614398</v>
@@ -22549,7 +22550,7 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B246">
         <v>5.4654105954004502</v>
@@ -22608,7 +22609,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B247">
         <v>5.0593946480960996</v>
@@ -22667,7 +22668,7 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B248">
         <v>3.7065893429876802</v>
@@ -22726,7 +22727,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B249">
         <v>5.3789787343729003</v>
@@ -22785,7 +22786,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B250">
         <v>6.6247723098618696</v>
@@ -22844,7 +22845,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B251">
         <v>5.3513454915819603</v>
@@ -22903,7 +22904,7 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B252">
         <v>4.6127415398582601</v>
@@ -22962,7 +22963,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B253">
         <v>5.3836971741398996</v>
@@ -23021,7 +23022,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B254">
         <v>4.232523646033</v>
@@ -23080,7 +23081,7 @@
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B255">
         <v>5.93718929200391</v>
@@ -23139,7 +23140,7 @@
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B256">
         <v>5.4887100734671499</v>
@@ -23198,7 +23199,7 @@
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B257">
         <v>5.5420542626783398</v>
@@ -23257,7 +23258,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B258">
         <v>5.1589490849169302</v>
@@ -23316,7 +23317,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B259">
         <v>5.22014718192057</v>
@@ -23375,7 +23376,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B260">
         <v>4.7043481615172498</v>
@@ -23434,7 +23435,7 @@
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B261">
         <v>5.4224971959841799</v>
@@ -23493,7 +23494,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B262">
         <v>4.81012407936971</v>
@@ -23552,7 +23553,7 @@
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B263">
         <v>4.6770360065696801</v>
@@ -23611,7 +23612,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B264">
         <v>5.6058846721564999</v>
@@ -23670,7 +23671,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B265">
         <v>4.7536143320524697</v>
@@ -23729,7 +23730,7 @@
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B266">
         <v>4.7175879466961597</v>
@@ -23788,7 +23789,7 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B267">
         <v>4.1346454482396302</v>
@@ -23847,7 +23848,7 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B268">
         <v>4.1563821461994603</v>
@@ -23906,7 +23907,7 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B269">
         <v>6.1255045763515401</v>
@@ -23965,7 +23966,7 @@
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B270">
         <v>4.8646929517991602</v>
@@ -24024,7 +24025,7 @@
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B271">
         <v>8.3418872390174794</v>
@@ -24083,7 +24084,7 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B272">
         <v>4.5538903250700997</v>
@@ -24142,7 +24143,7 @@
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B273">
         <v>5.4462690908137104</v>
@@ -24201,7 +24202,7 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B274">
         <v>3.7937964479331199</v>
@@ -24260,7 +24261,7 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B275">
         <v>3.2683898671223601</v>
@@ -24319,7 +24320,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B276">
         <v>7.0962943063981498</v>
@@ -24378,7 +24379,7 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B277">
         <v>4.7366335123568204</v>
@@ -24437,7 +24438,7 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B278">
         <v>6.7603901806571898</v>
@@ -24496,7 +24497,7 @@
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B279">
         <v>7.6596148655016298</v>
@@ -24555,7 +24556,7 @@
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B280">
         <v>5.01802710968885</v>
@@ -24614,7 +24615,7 @@
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B281">
         <v>6.0548984763267502</v>
@@ -24673,7 +24674,7 @@
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B282">
         <v>7.2412889836248198</v>
@@ -24732,7 +24733,7 @@
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B283">
         <v>9.0134422166591293</v>
@@ -24791,7 +24792,7 @@
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B284">
         <v>6.8118476471065703</v>
@@ -24850,7 +24851,7 @@
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B285">
         <v>7.7540965727517399</v>
@@ -24909,7 +24910,7 @@
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B286">
         <v>6.7585860569245702</v>
@@ -24968,7 +24969,7 @@
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B287">
         <v>8.2294939378818004</v>
@@ -25027,7 +25028,7 @@
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B288">
         <v>3.4242163881957102</v>
@@ -25086,7 +25087,7 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B289">
         <v>4.2529017821218398</v>
@@ -25145,7 +25146,7 @@
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B290">
         <v>3.6761152423727101</v>
@@ -25204,7 +25205,7 @@
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B291">
         <v>3.2669201022385899</v>
@@ -25263,7 +25264,7 @@
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B292">
         <v>3.1286221963738501</v>
@@ -25322,7 +25323,7 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B293">
         <v>2.0363859177467099</v>
@@ -25381,7 +25382,7 @@
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B294">
         <v>3.22472218847994</v>
@@ -25440,7 +25441,7 @@
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B295">
         <v>3.7039825915697802</v>
@@ -25499,7 +25500,7 @@
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B296">
         <v>4.0787490481943198</v>
@@ -25558,7 +25559,7 @@
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B297">
         <v>3.5851466761985198</v>
@@ -25617,7 +25618,7 @@
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B298">
         <v>3.7940315504241502</v>
@@ -25676,7 +25677,7 @@
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B299">
         <v>6.2131384988857796</v>
@@ -25735,7 +25736,7 @@
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B300">
         <v>5.1262145349904999</v>
@@ -25794,7 +25795,7 @@
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B301">
         <v>4.9846855825963301</v>
@@ -25853,7 +25854,7 @@
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B302">
         <v>3.7576783040718902</v>
@@ -25912,7 +25913,7 @@
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B303">
         <v>3.8055307473103399</v>
@@ -25971,7 +25972,7 @@
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B304">
         <v>3.7904530824807598</v>
@@ -26030,7 +26031,7 @@
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B305">
         <v>2.94835639792031</v>
@@ -26089,7 +26090,7 @@
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B306">
         <v>5.7300065048173003</v>
@@ -26148,7 +26149,7 @@
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B307">
         <v>3.8743120396377</v>
@@ -26207,7 +26208,7 @@
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B308">
         <v>4.0769419812244303</v>
@@ -26266,7 +26267,7 @@
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B309">
         <v>3.5262224454312099</v>
@@ -26325,7 +26326,7 @@
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B310">
         <v>4.9661387769618601</v>
@@ -26384,7 +26385,7 @@
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B311">
         <v>5.86365594127866</v>
@@ -26443,7 +26444,7 @@
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B312">
         <v>5.3647416613828902</v>
@@ -26502,7 +26503,7 @@
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B313">
         <v>2.9722676912194301</v>
@@ -26561,7 +26562,7 @@
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B314">
         <v>3.5421659245496899</v>
@@ -26620,7 +26621,7 @@
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B315">
         <v>5.0458503996020196</v>
@@ -26679,7 +26680,7 @@
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B316">
         <v>2.1984737510924801</v>
@@ -26738,7 +26739,7 @@
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B317">
         <v>2.0591939746222701</v>
@@ -26797,7 +26798,7 @@
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B318">
         <v>1.6219230911128399</v>
@@ -26856,7 +26857,7 @@
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B319">
         <v>3.56028097949177</v>
@@ -26915,7 +26916,7 @@
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B320">
         <v>4.4998836679537497</v>
@@ -26974,7 +26975,7 @@
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B321">
         <v>3.11229253668761</v>
@@ -27033,7 +27034,7 @@
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B322">
         <v>2.21443330080186</v>
@@ -27092,7 +27093,7 @@
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B323">
         <v>1.60322556734747</v>
@@ -27151,7 +27152,7 @@
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B324">
         <v>3.0757359069074801</v>
@@ -27210,7 +27211,7 @@
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B325">
         <v>3.5750502073065098</v>
@@ -27271,7 +27272,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -27286,7 +27287,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -27345,7 +27346,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>2.4557816240227801</v>
@@ -27404,7 +27405,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>0.139066888446541</v>
@@ -27463,7 +27464,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>0.46697435799709802</v>
@@ -27522,7 +27523,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>5.8907770436587299</v>
@@ -27581,7 +27582,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>7.6334834264916704</v>
@@ -27640,7 +27641,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -27699,7 +27700,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>11.952103395843899</v>
@@ -27758,7 +27759,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>5.9294832065258296</v>
@@ -27817,7 +27818,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>6.6297811005285103</v>
@@ -27876,7 +27877,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>0.12401004222298299</v>
@@ -27935,7 +27936,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>1.1728364882689399</v>
@@ -27994,7 +27995,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>1.0163859472814101</v>
@@ -28053,7 +28054,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>7.8147010098010101</v>
@@ -28112,7 +28113,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>0.43010752688171999</v>
@@ -28171,7 +28172,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>0.16851851851851901</v>
@@ -28230,7 +28231,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B17">
         <v>4.97306579323942</v>
@@ -28289,7 +28290,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B18">
         <v>3.4229505830819398</v>
@@ -28348,7 +28349,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <v>12.3125324134637</v>
@@ -28407,7 +28408,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <v>0.76803655479288802</v>
@@ -28466,7 +28467,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>12.9911254069116</v>
@@ -28525,7 +28526,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>12.892087232763799</v>
@@ -28584,7 +28585,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B23">
         <v>12.9179094439006</v>
@@ -28643,7 +28644,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>13.6570370962454</v>
@@ -28702,7 +28703,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B25">
         <v>12.991765147870799</v>
@@ -28761,7 +28762,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B26">
         <v>13.8059900537632</v>
@@ -28820,7 +28821,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B27">
         <v>13.380443054362701</v>
@@ -28879,7 +28880,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B28">
         <v>13.2166583377481</v>
@@ -28938,7 +28939,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B29">
         <v>13.6267624802783</v>
@@ -28997,7 +28998,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B30">
         <v>13.120821671555399</v>
@@ -29056,7 +29057,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B31">
         <v>13.421000500898099</v>
@@ -29115,7 +29116,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>13.733320382636499</v>
@@ -29174,7 +29175,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B33">
         <v>13.6956663292329</v>
@@ -29233,7 +29234,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B34">
         <v>13.8299317517458</v>
@@ -29292,7 +29293,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B35">
         <v>13.697871178966199</v>
@@ -29351,7 +29352,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B36">
         <v>13</v>
@@ -29410,7 +29411,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B37">
         <v>13.0198668525216</v>
@@ -29469,7 +29470,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B38">
         <v>14</v>
@@ -29528,7 +29529,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B39">
         <v>14</v>
@@ -29587,7 +29588,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B40">
         <v>13.0750056112128</v>
@@ -29646,7 +29647,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B41">
         <v>13.583805400189</v>
@@ -29705,7 +29706,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B42">
         <v>13.9871272608766</v>
@@ -29764,7 +29765,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B43">
         <v>13.944996258844901</v>
@@ -29823,7 +29824,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B44">
         <v>13.958991905227901</v>
@@ -29882,7 +29883,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B45">
         <v>13.7206689691343</v>
@@ -29941,7 +29942,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B46">
         <v>14</v>
@@ -30000,7 +30001,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B47">
         <v>13.8925174979918</v>
@@ -30059,7 +30060,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B48">
         <v>13.923061182777399</v>
@@ -30118,7 +30119,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B49">
         <v>13.8050280342311</v>
@@ -30177,7 +30178,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B50">
         <v>14</v>
@@ -30236,7 +30237,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B51">
         <v>13.980284046866</v>
@@ -30295,7 +30296,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B52">
         <v>12.4612037953782</v>
@@ -30354,7 +30355,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B53">
         <v>12.7777040599339</v>
@@ -30413,7 +30414,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B54">
         <v>12.982651311330599</v>
@@ -30472,7 +30473,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B55">
         <v>12.9064383187562</v>
@@ -30531,7 +30532,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B56">
         <v>13.6008704199573</v>
@@ -30590,7 +30591,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B57">
         <v>12.9772249005152</v>
@@ -30649,7 +30650,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B58">
         <v>13.027425255733201</v>
@@ -30708,7 +30709,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B59">
         <v>12.525214619815999</v>
@@ -30767,7 +30768,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B60">
         <v>11.956593561408299</v>
@@ -30826,7 +30827,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B61">
         <v>13.076329627433701</v>
@@ -30885,7 +30886,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B62">
         <v>11.398361216675699</v>
@@ -30944,7 +30945,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B63">
         <v>12.733205598936699</v>
@@ -31003,7 +31004,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B64">
         <v>11.9271365298136</v>
@@ -31062,7 +31063,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B65">
         <v>12.8844104023686</v>
@@ -31121,7 +31122,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B66">
         <v>13.657988000878699</v>
@@ -31180,7 +31181,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B67">
         <v>12.332858310751501</v>
@@ -31239,7 +31240,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B68">
         <v>12.2724102629315</v>
@@ -31298,7 +31299,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B69">
         <v>13.0286269370306</v>
@@ -31357,7 +31358,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B70">
         <v>11.111350249829799</v>
@@ -31416,7 +31417,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B71">
         <v>12.471773035011701</v>
@@ -31475,7 +31476,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B72">
         <v>10.1743365413014</v>
@@ -31534,7 +31535,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B73">
         <v>11.1672756636892</v>
@@ -31593,7 +31594,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B74">
         <v>11.140722854298</v>
@@ -31652,7 +31653,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B75">
         <v>13.045888330875</v>
@@ -31711,7 +31712,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B76">
         <v>12.3107935506244</v>
@@ -31770,7 +31771,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B77">
         <v>12.701126563419001</v>
@@ -31829,7 +31830,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B78">
         <v>13.3773046997009</v>
@@ -31888,7 +31889,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B79">
         <v>11.1259824522303</v>
@@ -31947,7 +31948,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B80">
         <v>12.0861541807412</v>
@@ -32006,7 +32007,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B81">
         <v>12.264396085113701</v>
@@ -32065,7 +32066,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B82">
         <v>13.4308169464048</v>
@@ -32124,7 +32125,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B83">
         <v>13.549118176820301</v>
@@ -32183,7 +32184,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B84">
         <v>13.4552783613795</v>
@@ -32242,7 +32243,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B85">
         <v>12.980012278023301</v>
@@ -32301,7 +32302,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B86">
         <v>13.8041158699123</v>
@@ -32360,7 +32361,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B87">
         <v>13.5007929253348</v>
@@ -32419,7 +32420,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B88">
         <v>13.390063746594601</v>
@@ -32478,7 +32479,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B89">
         <v>12.9504675393841</v>
@@ -32537,7 +32538,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B90">
         <v>13.8416607423508</v>
@@ -32596,7 +32597,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B91">
         <v>13.1224156334385</v>
@@ -32655,7 +32656,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B92">
         <v>13.2626090521264</v>
@@ -32714,7 +32715,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B93">
         <v>13.9137431598796</v>
@@ -32773,7 +32774,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B94">
         <v>13.323056691973299</v>
@@ -32832,7 +32833,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B95">
         <v>13.8591775744749</v>
@@ -32891,7 +32892,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B96">
         <v>13.1565285210773</v>
@@ -32950,7 +32951,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B97">
         <v>11.537356449393499</v>
@@ -33009,7 +33010,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B98">
         <v>12.2570712378729</v>
@@ -33068,7 +33069,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B99">
         <v>9.7212357270382608</v>
@@ -33127,7 +33128,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B100">
         <v>6.5056179775280896</v>
@@ -33186,7 +33187,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B101">
         <v>10.948157751335801</v>
@@ -33245,7 +33246,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B102">
         <v>12.103928266486699</v>
@@ -33304,7 +33305,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B103">
         <v>10.6107592309738</v>
@@ -33363,7 +33364,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B104">
         <v>13.397562308133701</v>
@@ -33422,7 +33423,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B105">
         <v>12.4342250664078</v>
@@ -33481,7 +33482,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B106">
         <v>13.228741687186</v>
@@ -33540,7 +33541,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B107">
         <v>12.082669377097099</v>
@@ -33599,7 +33600,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B108">
         <v>13.4655855673813</v>
@@ -33658,7 +33659,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B109">
         <v>12.4075058388819</v>
@@ -33717,7 +33718,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B110">
         <v>12.975188900533301</v>
@@ -33776,7 +33777,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B111">
         <v>12.301167493869499</v>
@@ -33835,7 +33836,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B112">
         <v>11.6866317721069</v>
@@ -33894,7 +33895,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B113">
         <v>12.5010765757076</v>
@@ -33953,7 +33954,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B114">
         <v>12.0498182708466</v>
@@ -34012,7 +34013,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B115">
         <v>11.6260537060885</v>
@@ -34071,7 +34072,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B116">
         <v>11.8629677625337</v>
@@ -34130,7 +34131,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B117">
         <v>11.5541125379973</v>
@@ -34189,7 +34190,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B118">
         <v>11.001305810299799</v>
@@ -34248,7 +34249,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B119">
         <v>12.290617706155899</v>
@@ -34307,7 +34308,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B120">
         <v>10.83402653365</v>
@@ -34366,7 +34367,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B121">
         <v>13.027268558025099</v>
@@ -34425,7 +34426,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B122">
         <v>12.5751605638493</v>
@@ -34484,7 +34485,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B123">
         <v>13.8715187777451</v>
@@ -34543,7 +34544,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B124">
         <v>13.655543828426699</v>
@@ -34602,7 +34603,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B125">
         <v>10.3401666411112</v>
@@ -34661,7 +34662,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B126">
         <v>9.3648755889980606</v>
@@ -34720,7 +34721,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B127">
         <v>3.8499106543910102</v>
@@ -34779,7 +34780,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B128">
         <v>2.3338674306482301</v>
@@ -34838,7 +34839,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B129">
         <v>8.7809521428296495</v>
@@ -34897,7 +34898,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B130">
         <v>6.5464833919560501</v>
@@ -34956,7 +34957,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B131">
         <v>9.3562681892206498</v>
@@ -35015,7 +35016,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B132">
         <v>10.356405857725001</v>
@@ -35074,7 +35075,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B133">
         <v>12.623966196591301</v>
@@ -35133,7 +35134,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B134">
         <v>12.415287853579599</v>
@@ -35192,7 +35193,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B135">
         <v>11.855809040991</v>
@@ -35251,7 +35252,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B136">
         <v>12.089741921923901</v>
@@ -35310,7 +35311,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B137">
         <v>12.930979967409099</v>
@@ -35369,7 +35370,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B138">
         <v>5.9023715900088796</v>
@@ -35428,7 +35429,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B139">
         <v>7.1617024050412903</v>
@@ -35487,7 +35488,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B140">
         <v>10.7558626998769</v>
@@ -35546,7 +35547,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B141">
         <v>11.3256124145052</v>
@@ -35605,7 +35606,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B142">
         <v>12.3629824310204</v>
@@ -35664,7 +35665,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B143">
         <v>12.4229310228574</v>
@@ -35723,7 +35724,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B144">
         <v>11.6849279731896</v>
@@ -35782,7 +35783,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B145">
         <v>8.7885598401282596</v>
@@ -35841,7 +35842,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B146">
         <v>10.419251926069901</v>
@@ -35900,7 +35901,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B147">
         <v>8.4070201906786295</v>
@@ -35959,7 +35960,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B148">
         <v>13.5485560854766</v>
@@ -36018,7 +36019,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B149">
         <v>9.3542363659442298</v>
@@ -36077,7 +36078,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B150">
         <v>12.1600917416916</v>
@@ -36136,7 +36137,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B151">
         <v>11.9117905394525</v>
@@ -36195,7 +36196,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B152">
         <v>11.535693202614601</v>
@@ -36254,7 +36255,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B153">
         <v>5.8680833708059996</v>
@@ -36313,7 +36314,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B154">
         <v>4.9729486783266896</v>
@@ -36372,7 +36373,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B155">
         <v>6.91362173221271</v>
@@ -36431,7 +36432,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B156">
         <v>6.9226961861700103</v>
@@ -36490,7 +36491,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B157">
         <v>12.3354117357557</v>
@@ -36549,7 +36550,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B158">
         <v>11.815130955985801</v>
@@ -36608,7 +36609,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B159">
         <v>12.8683052831905</v>
@@ -36667,7 +36668,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B160">
         <v>12.4522672087044</v>
@@ -36726,7 +36727,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B161">
         <v>8.9386517724438495</v>
@@ -36785,7 +36786,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B162">
         <v>11.744448398349901</v>
@@ -36844,7 +36845,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B163">
         <v>6.8763153290679</v>
@@ -36903,7 +36904,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B164">
         <v>9.4217180226893706</v>
@@ -36962,7 +36963,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B165">
         <v>13.300851147657699</v>
@@ -37021,7 +37022,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B166">
         <v>11.8352060555984</v>
@@ -37080,7 +37081,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B167">
         <v>11.380238264267801</v>
@@ -37139,7 +37140,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B168">
         <v>7.4827776682797902</v>
@@ -37198,7 +37199,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B169">
         <v>12.419460051997699</v>
@@ -37257,7 +37258,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B170">
         <v>2.9258391286882901</v>
@@ -37316,7 +37317,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B171">
         <v>10.964909042822001</v>
@@ -37375,7 +37376,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B172">
         <v>12.457123548749401</v>
@@ -37434,7 +37435,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B173">
         <v>12.4579322321897</v>
@@ -37493,7 +37494,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B174">
         <v>10.5757352904307</v>
@@ -37552,7 +37553,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B175">
         <v>10.1171123909355</v>
@@ -37611,7 +37612,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B176">
         <v>10.669250199296</v>
@@ -37670,7 +37671,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B177">
         <v>2.8673131602513999</v>
@@ -37729,7 +37730,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B178">
         <v>11.828674178583499</v>
@@ -37788,7 +37789,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B179">
         <v>12.3070607885193</v>
@@ -37847,7 +37848,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B180">
         <v>5.7515531212272704</v>
@@ -37906,7 +37907,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B181">
         <v>11.551753118686101</v>
@@ -37965,7 +37966,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B182">
         <v>9.3553859078522397</v>
@@ -38024,7 +38025,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B183">
         <v>9.5909586548149992</v>
@@ -38083,7 +38084,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B184">
         <v>11.8924952740875</v>
@@ -38142,7 +38143,7 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B185">
         <v>12.051123241235601</v>
@@ -38201,7 +38202,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B186">
         <v>11.8944988852531</v>
@@ -38260,7 +38261,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B187">
         <v>12.153493311017</v>
@@ -38319,7 +38320,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B188">
         <v>11.1586987214221</v>
@@ -38378,7 +38379,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B189">
         <v>7.5207407415789902</v>
@@ -38437,7 +38438,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B190">
         <v>9.0204538681294206</v>
@@ -38496,7 +38497,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B191">
         <v>7.4573421583191903</v>
@@ -38555,7 +38556,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B192">
         <v>9.7083810982975791</v>
@@ -38614,7 +38615,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B193">
         <v>8.2316227051944395</v>
@@ -38673,7 +38674,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B194">
         <v>12.3593299321375</v>
@@ -38732,7 +38733,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B195">
         <v>11.2722408495581</v>
@@ -38791,7 +38792,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B196">
         <v>10.569383730995099</v>
@@ -38850,7 +38851,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B197">
         <v>13.0645262721699</v>
@@ -38909,7 +38910,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B198">
         <v>11.5250503443932</v>
@@ -38968,7 +38969,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B199">
         <v>11.9162135198338</v>
@@ -39027,7 +39028,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B200">
         <v>12.0963699145085</v>
@@ -39086,7 +39087,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B201">
         <v>12.764478913409301</v>
@@ -39145,7 +39146,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B202">
         <v>12.718533786507701</v>
@@ -39204,7 +39205,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B203">
         <v>10.0961939686217</v>
@@ -39263,7 +39264,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B204">
         <v>11.8404084396028</v>
@@ -39322,7 +39323,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B205">
         <v>9.3494716748215296</v>
@@ -39381,7 +39382,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B206">
         <v>9.5546463490284399</v>
@@ -39440,7 +39441,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B207">
         <v>7.8683363502506403</v>
@@ -39499,7 +39500,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B208">
         <v>11.830675304817699</v>
@@ -39558,7 +39559,7 @@
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B209">
         <v>8.9646429244392198</v>
@@ -39617,7 +39618,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B210">
         <v>6.5609287432022798</v>
@@ -39676,7 +39677,7 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B211">
         <v>11.476709380164399</v>
@@ -39735,7 +39736,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B212">
         <v>9.9465381349709894</v>
@@ -39794,7 +39795,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B213">
         <v>5.8028618328073902</v>
@@ -39853,7 +39854,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B214">
         <v>9.5214609424312204</v>
@@ -39912,7 +39913,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B215">
         <v>11.0351907844619</v>
@@ -39971,7 +39972,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B216">
         <v>7.3503051417086898</v>
@@ -40030,7 +40031,7 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B217">
         <v>6.38393554043805</v>
@@ -40089,7 +40090,7 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B218">
         <v>8.4948732927677106</v>
@@ -40148,7 +40149,7 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B219">
         <v>5.3131076674489099</v>
@@ -40207,7 +40208,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B220">
         <v>6.0955083159522596</v>
@@ -40266,7 +40267,7 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B221">
         <v>6.8137495376614696</v>
@@ -40325,7 +40326,7 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B222">
         <v>8.5749435238429896</v>
@@ -40384,7 +40385,7 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B223">
         <v>11.1929450803904</v>
@@ -40443,7 +40444,7 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B224">
         <v>10.9909251264909</v>
@@ -40502,7 +40503,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B225">
         <v>9.4639060918952698</v>
@@ -40561,7 +40562,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B226">
         <v>12.4019566648855</v>
@@ -40620,7 +40621,7 @@
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B227">
         <v>10.6913839786185</v>
@@ -40679,7 +40680,7 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B228">
         <v>5.1280810303414102</v>
@@ -40738,7 +40739,7 @@
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B229">
         <v>10.897026889428201</v>
@@ -40797,7 +40798,7 @@
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B230">
         <v>11.796407764982099</v>
@@ -40856,7 +40857,7 @@
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B231">
         <v>9.3585572858447499</v>
@@ -40915,7 +40916,7 @@
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B232">
         <v>10.828838267864599</v>
@@ -40974,7 +40975,7 @@
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B233">
         <v>11.454291751267499</v>
@@ -41033,7 +41034,7 @@
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B234">
         <v>9.6526395612641807</v>
@@ -41092,7 +41093,7 @@
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B235">
         <v>10.9368885996185</v>
@@ -41151,7 +41152,7 @@
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B236">
         <v>3.7202544060992602</v>
@@ -41210,7 +41211,7 @@
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B237">
         <v>11.052084717685799</v>
@@ -41269,7 +41270,7 @@
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B238">
         <v>11.8693487625827</v>
@@ -41328,7 +41329,7 @@
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B239">
         <v>11.181111529285699</v>
@@ -41387,7 +41388,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B240">
         <v>7.1915693233522404</v>
@@ -41446,7 +41447,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B241">
         <v>9.7328239956814695</v>
@@ -41505,7 +41506,7 @@
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B242">
         <v>10.629581314174301</v>
@@ -41564,7 +41565,7 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B243">
         <v>11.708681737254601</v>
@@ -41623,7 +41624,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B244">
         <v>12.7981357866793</v>
@@ -41682,7 +41683,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B245">
         <v>12.6466866356187</v>
@@ -41741,7 +41742,7 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B246">
         <v>11.560448756746601</v>
@@ -41800,7 +41801,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B247">
         <v>11.462837059315101</v>
@@ -41859,7 +41860,7 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B248">
         <v>10.5019446998952</v>
@@ -41918,7 +41919,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B249">
         <v>12.4609446434318</v>
@@ -41977,7 +41978,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B250">
         <v>13.1261473981144</v>
@@ -42036,7 +42037,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B251">
         <v>12.222976019572201</v>
@@ -42095,7 +42096,7 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B252">
         <v>13.0793973110734</v>
@@ -42154,7 +42155,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B253">
         <v>13.2694663465345</v>
@@ -42213,7 +42214,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B254">
         <v>11.1815791245848</v>
@@ -42272,7 +42273,7 @@
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B255">
         <v>12.4345296816879</v>
@@ -42331,7 +42332,7 @@
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B256">
         <v>11.9170352119403</v>
@@ -42390,7 +42391,7 @@
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B257">
         <v>12.632090437721001</v>
@@ -42449,7 +42450,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B258">
         <v>12.1225744075672</v>
@@ -42508,7 +42509,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B259">
         <v>12.210431063390701</v>
@@ -42567,7 +42568,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B260">
         <v>11.241930343755101</v>
@@ -42626,7 +42627,7 @@
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B261">
         <v>12.059859593857301</v>
@@ -42685,7 +42686,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B262">
         <v>10.725148147302299</v>
@@ -42744,7 +42745,7 @@
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B263">
         <v>11.0574289076493</v>
@@ -42803,7 +42804,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B264">
         <v>12.468607778091201</v>
@@ -42862,7 +42863,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B265">
         <v>10.6576247567181</v>
@@ -42921,7 +42922,7 @@
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B266">
         <v>10.526221502381601</v>
@@ -42980,7 +42981,7 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B267">
         <v>10.026463274174599</v>
@@ -43039,7 +43040,7 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B268">
         <v>10.354822573590999</v>
@@ -43098,7 +43099,7 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B269">
         <v>12.703938349680101</v>
@@ -43157,7 +43158,7 @@
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B270">
         <v>11.804101110762801</v>
@@ -43216,7 +43217,7 @@
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B271">
         <v>13.724369621443101</v>
@@ -43275,7 +43276,7 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B272">
         <v>11.9928466542589</v>
@@ -43334,7 +43335,7 @@
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B273">
         <v>11.1647488744733</v>
@@ -43393,7 +43394,7 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B274">
         <v>10.8756190446811</v>
@@ -43452,7 +43453,7 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B275">
         <v>10.150416583627999</v>
@@ -43511,7 +43512,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B276">
         <v>12.816805775850799</v>
@@ -43570,7 +43571,7 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B277">
         <v>12.0447065873462</v>
@@ -43629,7 +43630,7 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B278">
         <v>13.4667117472548</v>
@@ -43688,7 +43689,7 @@
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B279">
         <v>12.6735923287258</v>
@@ -43747,7 +43748,7 @@
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B280">
         <v>11.908743843793999</v>
@@ -43806,7 +43807,7 @@
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B281">
         <v>12.2651604780773</v>
@@ -43865,7 +43866,7 @@
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B282">
         <v>13.4352338929823</v>
@@ -43924,7 +43925,7 @@
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B283">
         <v>13.7421815160248</v>
@@ -43983,7 +43984,7 @@
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B284">
         <v>13.0700249440291</v>
@@ -44042,7 +44043,7 @@
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B285">
         <v>13.6567471202727</v>
@@ -44101,7 +44102,7 @@
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B286">
         <v>12.7915702941437</v>
@@ -44160,7 +44161,7 @@
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B287">
         <v>12.956510839422799</v>
@@ -44219,7 +44220,7 @@
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B288">
         <v>8.0411196683592792</v>
@@ -44278,7 +44279,7 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B289">
         <v>9.9794413109394995</v>
@@ -44337,7 +44338,7 @@
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B290">
         <v>8.2689570436364797</v>
@@ -44396,7 +44397,7 @@
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B291">
         <v>7.9448800666243997</v>
@@ -44455,7 +44456,7 @@
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B292">
         <v>9.1219104987403092</v>
@@ -44514,7 +44515,7 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B293">
         <v>3.9262084781430202</v>
@@ -44573,7 +44574,7 @@
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B294">
         <v>10.1602091966098</v>
@@ -44632,7 +44633,7 @@
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B295">
         <v>9.8328209946753606</v>
@@ -44691,7 +44692,7 @@
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B296">
         <v>9.8551180441214203</v>
@@ -44750,7 +44751,7 @@
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B297">
         <v>10.736819861689</v>
@@ -44809,7 +44810,7 @@
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B298">
         <v>11.3586700277025</v>
@@ -44868,7 +44869,7 @@
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B299">
         <v>13.2510863084193</v>
@@ -44927,7 +44928,7 @@
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B300">
         <v>10.5095553316308</v>
@@ -44986,7 +44987,7 @@
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B301">
         <v>11.429419873546401</v>
@@ -45045,7 +45046,7 @@
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B302">
         <v>9.4228991209634998</v>
@@ -45104,7 +45105,7 @@
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B303">
         <v>9.8653124835490296</v>
@@ -45163,7 +45164,7 @@
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B304">
         <v>10.661510471416699</v>
@@ -45222,7 +45223,7 @@
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B305">
         <v>7.3229289885837199</v>
@@ -45281,7 +45282,7 @@
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B306">
         <v>13.0321753460598</v>
@@ -45340,7 +45341,7 @@
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B307">
         <v>11.1892656527338</v>
@@ -45399,7 +45400,7 @@
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B308">
         <v>11.965083229168799</v>
@@ -45458,7 +45459,7 @@
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B309">
         <v>9.1116482282956301</v>
@@ -45517,7 +45518,7 @@
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B310">
         <v>12.432164714071201</v>
@@ -45576,7 +45577,7 @@
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B311">
         <v>11.8494278489349</v>
@@ -45635,7 +45636,7 @@
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B312">
         <v>12.239055234098601</v>
@@ -45694,7 +45695,7 @@
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B313">
         <v>9.0035860558034404</v>
@@ -45753,7 +45754,7 @@
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B314">
         <v>9.4596744861946505</v>
@@ -45812,7 +45813,7 @@
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B315">
         <v>11.829467558977001</v>
@@ -45871,7 +45872,7 @@
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B316">
         <v>7.36155726149783</v>
@@ -45930,7 +45931,7 @@
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B317">
         <v>6.58240084558087</v>
@@ -45989,7 +45990,7 @@
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B318">
         <v>3.2067572445079202</v>
@@ -46048,7 +46049,7 @@
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B319">
         <v>8.7889720202151498</v>
@@ -46107,7 +46108,7 @@
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B320">
         <v>11.4982627155836</v>
@@ -46166,7 +46167,7 @@
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B321">
         <v>8.6223377514014192</v>
@@ -46225,7 +46226,7 @@
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B322">
         <v>8.1233179493365206</v>
@@ -46284,7 +46285,7 @@
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B323">
         <v>5.5406250554397296</v>
@@ -46343,7 +46344,7 @@
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B324">
         <v>8.9094240992331208</v>
@@ -46402,7 +46403,7 @@
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B325">
         <v>8.9130075126969093</v>
@@ -46463,7 +46464,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -46472,7 +46473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -46483,31 +46484,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -46948,5 +46949,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>